--- a/LIBOR.xlsx
+++ b/LIBOR.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="6210"/>
@@ -478,241 +478,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="79"/>
                 <c:pt idx="0">
-                  <c:v>2.5945019777812786E-3</c:v>
+                  <c:v>2.6781955899677712E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5945019777812786E-3</c:v>
+                  <c:v>2.6781955899677712E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3422698414575124E-3</c:v>
+                  <c:v>6.3711109935963278E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3422698414575124E-3</c:v>
+                  <c:v>6.3711109935963278E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3422698414575124E-3</c:v>
+                  <c:v>6.3711109935963278E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0321233478792782E-2</c:v>
+                  <c:v>1.0344837389427691E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0321233478792782E-2</c:v>
+                  <c:v>1.0344837389427691E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0321233478792782E-2</c:v>
+                  <c:v>1.0344837389427691E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0321233478792782E-2</c:v>
+                  <c:v>1.0344837389427691E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0321233478792782E-2</c:v>
+                  <c:v>1.0344837389427691E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0321233478792782E-2</c:v>
+                  <c:v>1.0344837389427691E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1623707399886653E-3</c:v>
+                  <c:v>4.1505333819965122E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1623707399886653E-3</c:v>
+                  <c:v>4.1505333819965122E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1623707399886653E-3</c:v>
+                  <c:v>4.1505333819965122E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.1623707399886653E-3</c:v>
+                  <c:v>4.1505333819965122E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.1623707399886653E-3</c:v>
+                  <c:v>4.1505333819965122E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1623707399886653E-3</c:v>
+                  <c:v>4.1505333819965122E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1623707399886653E-3</c:v>
+                  <c:v>4.1505333819965122E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1623707399886653E-3</c:v>
+                  <c:v>4.1505333819965122E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.1623707399886653E-3</c:v>
+                  <c:v>4.1505333819965122E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.1623707399886653E-3</c:v>
+                  <c:v>4.1505333819965122E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.1623707399886653E-3</c:v>
+                  <c:v>4.1505333819965122E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.1623707399886653E-3</c:v>
+                  <c:v>4.1505333819965122E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.1641121391413584E-3</c:v>
+                  <c:v>7.1640995779837669E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.1641121391413584E-3</c:v>
+                  <c:v>7.1640995779837669E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.6004622165645258E-2</c:v>
+                  <c:v>1.6004584843550721E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.6004622165645258E-2</c:v>
+                  <c:v>1.6004584843550721E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.6004622165645258E-2</c:v>
+                  <c:v>1.6004584843550721E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.6004622165645258E-2</c:v>
+                  <c:v>1.6004584843550721E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9938117027884927E-2</c:v>
+                  <c:v>2.9938077031770653E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9938117027884927E-2</c:v>
+                  <c:v>2.9938077031770653E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.9938117027884927E-2</c:v>
+                  <c:v>2.9938077031770653E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.9938117027884927E-2</c:v>
+                  <c:v>2.9938077031770653E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.9938117027884927E-2</c:v>
+                  <c:v>2.9938077031770653E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.9938117027884927E-2</c:v>
+                  <c:v>2.9938077031770653E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.9938117027884927E-2</c:v>
+                  <c:v>2.9938077031770653E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.9938117027884927E-2</c:v>
+                  <c:v>2.9938077031770653E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.9938117027884927E-2</c:v>
+                  <c:v>2.9938077031770653E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.9938117027884927E-2</c:v>
+                  <c:v>2.9938077031770653E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.3646685628839927E-2</c:v>
+                  <c:v>3.36466678272914E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.1347286474342088E-2</c:v>
+                  <c:v>3.134728030605665E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,241 +989,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="79"/>
                 <c:pt idx="0">
-                  <c:v>2.5945019777812786E-3</c:v>
+                  <c:v>2.6781955899677712E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5945019777812786E-3</c:v>
+                  <c:v>2.6781955899677712E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0588044988800489E-3</c:v>
+                  <c:v>3.1357025633125821E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1532929464055566E-3</c:v>
+                  <c:v>4.2141720400738309E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7005371701689478E-3</c:v>
+                  <c:v>4.7534067784544545E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0443166001223113E-3</c:v>
+                  <c:v>5.0923602038987848E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9238027465673094E-3</c:v>
+                  <c:v>5.9677730681536017E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5520071368853653E-3</c:v>
+                  <c:v>6.5930679711927575E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0231604296238179E-3</c:v>
+                  <c:v>7.0620391484721243E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.3896129906426472E-3</c:v>
+                  <c:v>7.4267945085782988E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.6827750394576249E-3</c:v>
+                  <c:v>7.7185987966632372E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.372957707504295E-3</c:v>
+                  <c:v>7.4045074438768557E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.1054087935444763E-3</c:v>
+                  <c:v>7.1333429387201606E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.8790212509632683E-3</c:v>
+                  <c:v>6.903896049741419E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6849747858936971E-3</c:v>
+                  <c:v>6.7072272877596395E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5168011828334316E-3</c:v>
+                  <c:v>6.5367810273754311E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3696492801555635E-3</c:v>
+                  <c:v>6.3876405495392483E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.2398093660281208E-3</c:v>
+                  <c:v>6.2560460102720292E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.1243961090259608E-3</c:v>
+                  <c:v>6.1390730864789439E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0211316159186892E-3</c:v>
+                  <c:v>6.0344131020325003E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.9281935721221899E-3</c:v>
+                  <c:v>5.9402191160307016E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.3395859614109977E-3</c:v>
+                  <c:v>5.3436572046859712E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.045282156055461E-3</c:v>
+                  <c:v>5.0453762490136073E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.4641171606411385E-3</c:v>
+                  <c:v>5.4641704980585839E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.7474496570578395E-3</c:v>
+                  <c:v>5.7474920113794485E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.2041157306651001E-3</c:v>
+                  <c:v>7.2041467268528564E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.3041790350376135E-3</c:v>
+                  <c:v>8.3042014914400906E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.1597838273273467E-3</c:v>
+                  <c:v>9.1597996416746055E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.8442676611591347E-3</c:v>
+                  <c:v>9.844278161862216E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1658843294082734E-2</c:v>
+                  <c:v>1.1658849206495476E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3182116105232906E-2</c:v>
+                  <c:v>1.3182118191935077E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.447103925312922E-2</c:v>
+                  <c:v>1.4471038102691659E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.557583052275463E-2</c:v>
+                  <c:v>1.5575826597625872E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.653331628976332E-2</c:v>
+                  <c:v>1.6533309959902192E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.7371116335895918E-2</c:v>
+                  <c:v>1.7371107901893969E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.8110351670718804E-2</c:v>
+                  <c:v>1.8110341380122009E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.876744974611692E-2</c:v>
+                  <c:v>1.8767437805213602E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.9355379603052076E-2</c:v>
+                  <c:v>1.935536618555871E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.9884516474293717E-2</c:v>
+                  <c:v>1.9884501727869305E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.0538407361539258E-2</c:v>
+                  <c:v>2.0538392460951977E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.1134238191871112E-2</c:v>
+                  <c:v>2.1134223159421952E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.1678257645652371E-2</c:v>
+                  <c:v>2.1678242492807576E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.2176942144951844E-2</c:v>
+                  <c:v>2.2176926881744403E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.263573188430737E-2</c:v>
+                  <c:v>2.2635716519566286E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.3059230105250926E-2</c:v>
+                  <c:v>2.3059214646786483E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.3451358087606074E-2</c:v>
+                  <c:v>2.3451342542360736E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.3815476928364426E-2</c:v>
+                  <c:v>2.3815461302536835E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.4154484124932551E-2</c:v>
+                  <c:v>2.4154468424080092E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.4470890841729469E-2</c:v>
+                  <c:v>2.4470875070853805E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.4766884221958829E-2</c:v>
+                  <c:v>2.4766868385577599E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.5044378015923869E-2</c:v>
+                  <c:v>2.5044362118131151E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.5305054004194048E-2</c:v>
+                  <c:v>2.5305038048711769E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.5550396110801284E-2</c:v>
+                  <c:v>2.5550380101022931E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.5781718668459529E-2</c:v>
+                  <c:v>2.5781702607487748E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.6000189972914537E-2</c:v>
+                  <c:v>2.6000173863593403E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.6206852017669282E-2</c:v>
+                  <c:v>2.6206835862612264E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.6402637112700078E-2</c:v>
+                  <c:v>2.6402620914314352E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.6588381946447255E-2</c:v>
+                  <c:v>2.6588365706954786E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.6764839538507078E-2</c:v>
+                  <c:v>2.6764823259963204E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.6876913630199888E-2</c:v>
+                  <c:v>2.6876897596694014E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.6983351078869934E-2</c:v>
+                  <c:v>2.6983335280250268E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.708483794853208E-2</c:v>
+                  <c:v>2.708482237387367E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.7181711778664127E-2</c:v>
+                  <c:v>2.7181696417786918E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.7274280105234749E-2</c:v>
+                  <c:v>2.7274264948637356E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.7362823721954473E-2</c:v>
+                  <c:v>2.736280876075517E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.7447599525196764E-2</c:v>
+                  <c:v>2.7447584751080733E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.7528843003303952E-2</c:v>
+                  <c:v>2.7528828408476064E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.7606770421080243E-2</c:v>
+                  <c:v>2.7606755998222605E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.7681580742145481E-2</c:v>
+                  <c:v>2.7681566484379284E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.7753457325129731E-2</c:v>
+                  <c:v>2.7753443225980806E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.7822569424153044E-2</c:v>
+                  <c:v>2.7822555477520723E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.7889073519439634E-2</c:v>
+                  <c:v>2.7889059719568572E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.7953114500085967E-2</c:v>
+                  <c:v>2.7953100841540575E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.8014826717799715E-2</c:v>
+                  <c:v>2.8014813195440868E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.8074334927737976E-2</c:v>
+                  <c:v>2.8074321536701863E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.8131755130309979E-2</c:v>
+                  <c:v>2.8131741865988789E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.8187195325896738E-2</c:v>
+                  <c:v>2.8187182183920991E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.8240756192819544E-2</c:v>
+                  <c:v>2.8240743169041939E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.8292531697511579E-2</c:v>
+                  <c:v>2.8292518787992181E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,11 +1238,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103305984"/>
-        <c:axId val="103307520"/>
+        <c:axId val="103108608"/>
+        <c:axId val="103110144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103305984"/>
+        <c:axId val="103108608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,12 +1252,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103307520"/>
+        <c:crossAx val="103110144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103307520"/>
+        <c:axId val="103110144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103305984"/>
+        <c:crossAx val="103108608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1294,16 +1294,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1614,13 +1614,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1648,8 +1650,8 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <f>_xll.PWFLAT.BUILD(_xll.PWFLAT.FORWARD.CURVE(),_xll.ARRAY.JOIN(_xll.ARRAY.MASK(H4:H7,I4:I7),_xll.ARRAY.MASK(H11:H16,I11:I16)))</f>
-        <v>31442232</v>
+        <f>_xll.PWFLAT.BUILD(_xll.PWFLAT.YIELD.CURVE(),_xll.ARRAY.JOIN(_xll.ARRAY.MASK(H4:H7,I4:I7),_xll.ARRAY.MASK(H11:H16,I11:I16)))</f>
+        <v>101232072</v>
       </c>
       <c r="L3" t="s">
         <v>30</v>
@@ -1683,7 +1685,7 @@
       </c>
       <c r="H4">
         <f>_xll.CASH.DEPOSIT.VALUATION(_xll.CASH.DEPOSIT(G4), Settle, Settle+1, B4)</f>
-        <v>31397312</v>
+        <v>100944720</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -1694,11 +1696,11 @@
       </c>
       <c r="M4">
         <f t="array" ref="M4:M82">_xll.PWFLAT.FORWARD(J3, L4:L82)</f>
-        <v>2.5945019777812786E-3</v>
+        <v>2.6781955899677712E-3</v>
       </c>
       <c r="N4">
         <f t="array" ref="N4:N82">_xll.PWFLAT.SPOT(J3, time)</f>
-        <v>2.5945019777812786E-3</v>
+        <v>2.6781955899677712E-3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1723,7 +1725,7 @@
       </c>
       <c r="H5">
         <f>_xll.CASH.DEPOSIT.VALUATION(_xll.CASH.DEPOSIT(G5), Settle, Settle+1, B5)</f>
-        <v>31396592</v>
+        <v>100944576</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -1733,10 +1735,10 @@
         <v>0.05</v>
       </c>
       <c r="M5">
-        <v>2.5945019777812786E-3</v>
+        <v>2.6781955899677712E-3</v>
       </c>
       <c r="N5">
-        <v>2.5945019777812786E-3</v>
+        <v>2.6781955899677712E-3</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1761,7 +1763,7 @@
       </c>
       <c r="H6">
         <f>_xll.CASH.DEPOSIT.VALUATION(_xll.CASH.DEPOSIT(G6), Settle, Settle+1, B6)</f>
-        <v>31396448</v>
+        <v>100943856</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -1771,10 +1773,10 @@
         <v>0.1</v>
       </c>
       <c r="M6">
-        <v>6.3422698414575124E-3</v>
+        <v>6.3711109935963278E-3</v>
       </c>
       <c r="N6">
-        <v>3.0588044988800489E-3</v>
+        <v>3.1357025633125821E-3</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1799,7 +1801,7 @@
       </c>
       <c r="H7">
         <f>_xll.CASH.DEPOSIT.VALUATION(_xll.CASH.DEPOSIT(G7), Settle, Settle+1, B7)</f>
-        <v>31395872</v>
+        <v>100943712</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -1808,10 +1810,10 @@
         <v>0.15</v>
       </c>
       <c r="M7">
-        <v>6.3422698414575124E-3</v>
+        <v>6.3711109935963278E-3</v>
       </c>
       <c r="N7">
-        <v>4.1532929464055566E-3</v>
+        <v>4.2141720400738309E-3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1819,10 +1821,10 @@
         <v>0.2</v>
       </c>
       <c r="M8">
-        <v>6.3422698414575124E-3</v>
+        <v>6.3711109935963278E-3</v>
       </c>
       <c r="N8">
-        <v>4.7005371701689478E-3</v>
+        <v>4.7534067784544545E-3</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1837,10 +1839,10 @@
         <v>0.25</v>
       </c>
       <c r="M9">
-        <v>1.0321233478792782E-2</v>
+        <v>1.0344837389427691E-2</v>
       </c>
       <c r="N9">
-        <v>5.0443166001223113E-3</v>
+        <v>5.0923602038987848E-3</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1863,10 +1865,10 @@
         <v>0.3</v>
       </c>
       <c r="M10">
-        <v>1.0321233478792782E-2</v>
+        <v>1.0344837389427691E-2</v>
       </c>
       <c r="N10">
-        <v>5.9238027465673094E-3</v>
+        <v>5.9677730681536017E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1891,7 +1893,7 @@
       </c>
       <c r="H11">
         <f>_xll.INTEREST.RATE.SWAP.VALUATION(_xll.INTEREST.RATE.SWAP(G11), Settle, Settle+1, B11)</f>
-        <v>31479752</v>
+        <v>101199672</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -1900,10 +1902,10 @@
         <v>0.35</v>
       </c>
       <c r="M11">
-        <v>1.0321233478792782E-2</v>
+        <v>1.0344837389427691E-2</v>
       </c>
       <c r="N11">
-        <v>6.5520071368853653E-3</v>
+        <v>6.5930679711927575E-3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1928,7 +1930,7 @@
       </c>
       <c r="H12">
         <f>_xll.INTEREST.RATE.SWAP.VALUATION(_xll.INTEREST.RATE.SWAP(G12), Settle, Settle+1, B12)</f>
-        <v>31479272</v>
+        <v>101129992</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -1937,10 +1939,10 @@
         <v>0.4</v>
       </c>
       <c r="M12">
-        <v>1.0321233478792782E-2</v>
+        <v>1.0344837389427691E-2</v>
       </c>
       <c r="N12">
-        <v>7.0231604296238179E-3</v>
+        <v>7.0620391484721243E-3</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1965,7 +1967,7 @@
       </c>
       <c r="H13">
         <f>_xll.INTEREST.RATE.SWAP.VALUATION(_xll.INTEREST.RATE.SWAP(G13), Settle, Settle+1, B13)</f>
-        <v>31479592</v>
+        <v>101144496</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1974,10 +1976,10 @@
         <v>0.45</v>
       </c>
       <c r="M13">
-        <v>1.0321233478792782E-2</v>
+        <v>1.0344837389427691E-2</v>
       </c>
       <c r="N13">
-        <v>7.3896129906426472E-3</v>
+        <v>7.4267945085782988E-3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2002,7 +2004,7 @@
       </c>
       <c r="H14">
         <f>_xll.INTEREST.RATE.SWAP.VALUATION(_xll.INTEREST.RATE.SWAP(G14), Settle, Settle+1, B14)</f>
-        <v>31479432</v>
+        <v>101129832</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -2011,10 +2013,10 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>1.0321233478792782E-2</v>
+        <v>1.0344837389427691E-2</v>
       </c>
       <c r="N14">
-        <v>7.6827750394576249E-3</v>
+        <v>7.7185987966632372E-3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2039,7 +2041,7 @@
       </c>
       <c r="H15">
         <f>_xll.INTEREST.RATE.SWAP.VALUATION(_xll.INTEREST.RATE.SWAP(G15), Settle, Settle+1, B15)</f>
-        <v>31479112</v>
+        <v>101177536</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -2048,10 +2050,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="M15">
-        <v>4.1623707399886653E-3</v>
+        <v>4.1505333819965122E-3</v>
       </c>
       <c r="N15">
-        <v>7.372957707504295E-3</v>
+        <v>7.4045074438768557E-3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2076,7 +2078,7 @@
       </c>
       <c r="H16">
         <f>_xll.INTEREST.RATE.SWAP.VALUATION(_xll.INTEREST.RATE.SWAP(G16), Settle, Settle+1, B16)</f>
-        <v>31440368</v>
+        <v>101118688</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -2085,10 +2087,10 @@
         <v>0.6</v>
       </c>
       <c r="M16">
-        <v>4.1623707399886653E-3</v>
+        <v>4.1505333819965122E-3</v>
       </c>
       <c r="N16">
-        <v>7.1054087935444763E-3</v>
+        <v>7.1333429387201606E-3</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
@@ -2096,10 +2098,10 @@
         <v>0.65</v>
       </c>
       <c r="M17">
-        <v>4.1623707399886653E-3</v>
+        <v>4.1505333819965122E-3</v>
       </c>
       <c r="N17">
-        <v>6.8790212509632683E-3</v>
+        <v>6.903896049741419E-3</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
@@ -2111,10 +2113,10 @@
         <v>0.7</v>
       </c>
       <c r="M18">
-        <v>4.1623707399886653E-3</v>
+        <v>4.1505333819965122E-3</v>
       </c>
       <c r="N18">
-        <v>6.6849747858936971E-3</v>
+        <v>6.7072272877596395E-3</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
@@ -2122,10 +2124,10 @@
         <v>0.75</v>
       </c>
       <c r="M19">
-        <v>4.1623707399886653E-3</v>
+        <v>4.1505333819965122E-3</v>
       </c>
       <c r="N19">
-        <v>6.5168011828334316E-3</v>
+        <v>6.5367810273754311E-3</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
@@ -2133,10 +2135,10 @@
         <v>0.8</v>
       </c>
       <c r="M20">
-        <v>4.1623707399886653E-3</v>
+        <v>4.1505333819965122E-3</v>
       </c>
       <c r="N20">
-        <v>6.3696492801555635E-3</v>
+        <v>6.3876405495392483E-3</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
@@ -2144,10 +2146,10 @@
         <v>0.85</v>
       </c>
       <c r="M21">
-        <v>4.1623707399886653E-3</v>
+        <v>4.1505333819965122E-3</v>
       </c>
       <c r="N21">
-        <v>6.2398093660281208E-3</v>
+        <v>6.2560460102720292E-3</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
@@ -2155,10 +2157,10 @@
         <v>0.9</v>
       </c>
       <c r="M22">
-        <v>4.1623707399886653E-3</v>
+        <v>4.1505333819965122E-3</v>
       </c>
       <c r="N22">
-        <v>6.1243961090259608E-3</v>
+        <v>6.1390730864789439E-3</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
@@ -2166,10 +2168,10 @@
         <v>0.95</v>
       </c>
       <c r="M23">
-        <v>4.1623707399886653E-3</v>
+        <v>4.1505333819965122E-3</v>
       </c>
       <c r="N23">
-        <v>6.0211316159186892E-3</v>
+        <v>6.0344131020325003E-3</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
@@ -2177,10 +2179,10 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.1623707399886653E-3</v>
+        <v>4.1505333819965122E-3</v>
       </c>
       <c r="N24">
-        <v>5.9281935721221899E-3</v>
+        <v>5.9402191160307016E-3</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
@@ -2188,10 +2190,10 @@
         <v>1.5</v>
       </c>
       <c r="M25">
-        <v>4.1623707399886653E-3</v>
+        <v>4.1505333819965122E-3</v>
       </c>
       <c r="N25">
-        <v>5.3395859614109977E-3</v>
+        <v>5.3436572046859712E-3</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.25">
@@ -2199,10 +2201,10 @@
         <v>2</v>
       </c>
       <c r="M26">
-        <v>4.1623707399886653E-3</v>
+        <v>4.1505333819965122E-3</v>
       </c>
       <c r="N26">
-        <v>5.045282156055461E-3</v>
+        <v>5.0453762490136073E-3</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.25">
@@ -2210,10 +2212,10 @@
         <v>2.5</v>
       </c>
       <c r="M27">
-        <v>7.1641121391413584E-3</v>
+        <v>7.1640995779837669E-3</v>
       </c>
       <c r="N27">
-        <v>5.4641171606411385E-3</v>
+        <v>5.4641704980585839E-3</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
@@ -2221,10 +2223,10 @@
         <v>3</v>
       </c>
       <c r="M28">
-        <v>7.1641121391413584E-3</v>
+        <v>7.1640995779837669E-3</v>
       </c>
       <c r="N28">
-        <v>5.7474496570578395E-3</v>
+        <v>5.7474920113794485E-3</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
@@ -2232,10 +2234,10 @@
         <v>3.5</v>
       </c>
       <c r="M29">
-        <v>1.6004622165645258E-2</v>
+        <v>1.6004584843550721E-2</v>
       </c>
       <c r="N29">
-        <v>7.2041157306651001E-3</v>
+        <v>7.2041467268528564E-3</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
@@ -2243,10 +2245,10 @@
         <v>4</v>
       </c>
       <c r="M30">
-        <v>1.6004622165645258E-2</v>
+        <v>1.6004584843550721E-2</v>
       </c>
       <c r="N30">
-        <v>8.3041790350376135E-3</v>
+        <v>8.3042014914400906E-3</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.25">
@@ -2254,10 +2256,10 @@
         <v>4.5</v>
       </c>
       <c r="M31">
-        <v>1.6004622165645258E-2</v>
+        <v>1.6004584843550721E-2</v>
       </c>
       <c r="N31">
-        <v>9.1597838273273467E-3</v>
+        <v>9.1597996416746055E-3</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
@@ -2265,10 +2267,10 @@
         <v>5</v>
       </c>
       <c r="M32">
-        <v>1.6004622165645258E-2</v>
+        <v>1.6004584843550721E-2</v>
       </c>
       <c r="N32">
-        <v>9.8442676611591347E-3</v>
+        <v>9.844278161862216E-3</v>
       </c>
     </row>
     <row r="33" spans="12:14" x14ac:dyDescent="0.25">
@@ -2276,10 +2278,10 @@
         <v>5.5</v>
       </c>
       <c r="M33">
-        <v>2.9938117027884927E-2</v>
+        <v>2.9938077031770653E-2</v>
       </c>
       <c r="N33">
-        <v>1.1658843294082734E-2</v>
+        <v>1.1658849206495476E-2</v>
       </c>
     </row>
     <row r="34" spans="12:14" x14ac:dyDescent="0.25">
@@ -2287,10 +2289,10 @@
         <v>6</v>
       </c>
       <c r="M34">
-        <v>2.9938117027884927E-2</v>
+        <v>2.9938077031770653E-2</v>
       </c>
       <c r="N34">
-        <v>1.3182116105232906E-2</v>
+        <v>1.3182118191935077E-2</v>
       </c>
     </row>
     <row r="35" spans="12:14" x14ac:dyDescent="0.25">
@@ -2298,10 +2300,10 @@
         <v>6.5</v>
       </c>
       <c r="M35">
-        <v>2.9938117027884927E-2</v>
+        <v>2.9938077031770653E-2</v>
       </c>
       <c r="N35">
-        <v>1.447103925312922E-2</v>
+        <v>1.4471038102691659E-2</v>
       </c>
     </row>
     <row r="36" spans="12:14" x14ac:dyDescent="0.25">
@@ -2309,10 +2311,10 @@
         <v>7</v>
       </c>
       <c r="M36">
-        <v>2.9938117027884927E-2</v>
+        <v>2.9938077031770653E-2</v>
       </c>
       <c r="N36">
-        <v>1.557583052275463E-2</v>
+        <v>1.5575826597625872E-2</v>
       </c>
     </row>
     <row r="37" spans="12:14" x14ac:dyDescent="0.25">
@@ -2320,10 +2322,10 @@
         <v>7.5</v>
       </c>
       <c r="M37">
-        <v>2.9938117027884927E-2</v>
+        <v>2.9938077031770653E-2</v>
       </c>
       <c r="N37">
-        <v>1.653331628976332E-2</v>
+        <v>1.6533309959902192E-2</v>
       </c>
     </row>
     <row r="38" spans="12:14" x14ac:dyDescent="0.25">
@@ -2331,10 +2333,10 @@
         <v>8</v>
       </c>
       <c r="M38">
-        <v>2.9938117027884927E-2</v>
+        <v>2.9938077031770653E-2</v>
       </c>
       <c r="N38">
-        <v>1.7371116335895918E-2</v>
+        <v>1.7371107901893969E-2</v>
       </c>
     </row>
     <row r="39" spans="12:14" x14ac:dyDescent="0.25">
@@ -2342,10 +2344,10 @@
         <v>8.5</v>
       </c>
       <c r="M39">
-        <v>2.9938117027884927E-2</v>
+        <v>2.9938077031770653E-2</v>
       </c>
       <c r="N39">
-        <v>1.8110351670718804E-2</v>
+        <v>1.8110341380122009E-2</v>
       </c>
     </row>
     <row r="40" spans="12:14" x14ac:dyDescent="0.25">
@@ -2353,10 +2355,10 @@
         <v>9</v>
       </c>
       <c r="M40">
-        <v>2.9938117027884927E-2</v>
+        <v>2.9938077031770653E-2</v>
       </c>
       <c r="N40">
-        <v>1.876744974611692E-2</v>
+        <v>1.8767437805213602E-2</v>
       </c>
     </row>
     <row r="41" spans="12:14" x14ac:dyDescent="0.25">
@@ -2364,10 +2366,10 @@
         <v>9.5</v>
       </c>
       <c r="M41">
-        <v>2.9938117027884927E-2</v>
+        <v>2.9938077031770653E-2</v>
       </c>
       <c r="N41">
-        <v>1.9355379603052076E-2</v>
+        <v>1.935536618555871E-2</v>
       </c>
     </row>
     <row r="42" spans="12:14" x14ac:dyDescent="0.25">
@@ -2375,10 +2377,10 @@
         <v>10</v>
       </c>
       <c r="M42">
-        <v>2.9938117027884927E-2</v>
+        <v>2.9938077031770653E-2</v>
       </c>
       <c r="N42">
-        <v>1.9884516474293717E-2</v>
+        <v>1.9884501727869305E-2</v>
       </c>
     </row>
     <row r="43" spans="12:14" x14ac:dyDescent="0.25">
@@ -2386,10 +2388,10 @@
         <v>10.5</v>
       </c>
       <c r="M43">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N43">
-        <v>2.0538407361539258E-2</v>
+        <v>2.0538392460951977E-2</v>
       </c>
     </row>
     <row r="44" spans="12:14" x14ac:dyDescent="0.25">
@@ -2397,10 +2399,10 @@
         <v>11</v>
       </c>
       <c r="M44">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N44">
-        <v>2.1134238191871112E-2</v>
+        <v>2.1134223159421952E-2</v>
       </c>
     </row>
     <row r="45" spans="12:14" x14ac:dyDescent="0.25">
@@ -2408,10 +2410,10 @@
         <v>11.5</v>
       </c>
       <c r="M45">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N45">
-        <v>2.1678257645652371E-2</v>
+        <v>2.1678242492807576E-2</v>
       </c>
     </row>
     <row r="46" spans="12:14" x14ac:dyDescent="0.25">
@@ -2419,10 +2421,10 @@
         <v>12</v>
       </c>
       <c r="M46">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N46">
-        <v>2.2176942144951844E-2</v>
+        <v>2.2176926881744403E-2</v>
       </c>
     </row>
     <row r="47" spans="12:14" x14ac:dyDescent="0.25">
@@ -2430,10 +2432,10 @@
         <v>12.5</v>
       </c>
       <c r="M47">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N47">
-        <v>2.263573188430737E-2</v>
+        <v>2.2635716519566286E-2</v>
       </c>
     </row>
     <row r="48" spans="12:14" x14ac:dyDescent="0.25">
@@ -2441,10 +2443,10 @@
         <v>13</v>
       </c>
       <c r="M48">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N48">
-        <v>2.3059230105250926E-2</v>
+        <v>2.3059214646786483E-2</v>
       </c>
     </row>
     <row r="49" spans="12:14" x14ac:dyDescent="0.25">
@@ -2452,10 +2454,10 @@
         <v>13.5</v>
       </c>
       <c r="M49">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N49">
-        <v>2.3451358087606074E-2</v>
+        <v>2.3451342542360736E-2</v>
       </c>
     </row>
     <row r="50" spans="12:14" x14ac:dyDescent="0.25">
@@ -2463,10 +2465,10 @@
         <v>14</v>
       </c>
       <c r="M50">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N50">
-        <v>2.3815476928364426E-2</v>
+        <v>2.3815461302536835E-2</v>
       </c>
     </row>
     <row r="51" spans="12:14" x14ac:dyDescent="0.25">
@@ -2474,10 +2476,10 @@
         <v>14.5</v>
       </c>
       <c r="M51">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N51">
-        <v>2.4154484124932551E-2</v>
+        <v>2.4154468424080092E-2</v>
       </c>
     </row>
     <row r="52" spans="12:14" x14ac:dyDescent="0.25">
@@ -2485,10 +2487,10 @@
         <v>15</v>
       </c>
       <c r="M52">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N52">
-        <v>2.4470890841729469E-2</v>
+        <v>2.4470875070853805E-2</v>
       </c>
     </row>
     <row r="53" spans="12:14" x14ac:dyDescent="0.25">
@@ -2496,10 +2498,10 @@
         <v>15.5</v>
       </c>
       <c r="M53">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N53">
-        <v>2.4766884221958829E-2</v>
+        <v>2.4766868385577599E-2</v>
       </c>
     </row>
     <row r="54" spans="12:14" x14ac:dyDescent="0.25">
@@ -2507,10 +2509,10 @@
         <v>16</v>
       </c>
       <c r="M54">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N54">
-        <v>2.5044378015923869E-2</v>
+        <v>2.5044362118131151E-2</v>
       </c>
     </row>
     <row r="55" spans="12:14" x14ac:dyDescent="0.25">
@@ -2518,10 +2520,10 @@
         <v>16.5</v>
       </c>
       <c r="M55">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N55">
-        <v>2.5305054004194048E-2</v>
+        <v>2.5305038048711769E-2</v>
       </c>
     </row>
     <row r="56" spans="12:14" x14ac:dyDescent="0.25">
@@ -2529,10 +2531,10 @@
         <v>17</v>
       </c>
       <c r="M56">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N56">
-        <v>2.5550396110801284E-2</v>
+        <v>2.5550380101022931E-2</v>
       </c>
     </row>
     <row r="57" spans="12:14" x14ac:dyDescent="0.25">
@@ -2540,10 +2542,10 @@
         <v>17.5</v>
       </c>
       <c r="M57">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N57">
-        <v>2.5781718668459529E-2</v>
+        <v>2.5781702607487748E-2</v>
       </c>
     </row>
     <row r="58" spans="12:14" x14ac:dyDescent="0.25">
@@ -2551,10 +2553,10 @@
         <v>18</v>
       </c>
       <c r="M58">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N58">
-        <v>2.6000189972914537E-2</v>
+        <v>2.6000173863593403E-2</v>
       </c>
     </row>
     <row r="59" spans="12:14" x14ac:dyDescent="0.25">
@@ -2562,10 +2564,10 @@
         <v>18.5</v>
       </c>
       <c r="M59">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N59">
-        <v>2.6206852017669282E-2</v>
+        <v>2.6206835862612264E-2</v>
       </c>
     </row>
     <row r="60" spans="12:14" x14ac:dyDescent="0.25">
@@ -2573,10 +2575,10 @@
         <v>19</v>
       </c>
       <c r="M60">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N60">
-        <v>2.6402637112700078E-2</v>
+        <v>2.6402620914314352E-2</v>
       </c>
     </row>
     <row r="61" spans="12:14" x14ac:dyDescent="0.25">
@@ -2584,10 +2586,10 @@
         <v>19.5</v>
       </c>
       <c r="M61">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N61">
-        <v>2.6588381946447255E-2</v>
+        <v>2.6588365706954786E-2</v>
       </c>
     </row>
     <row r="62" spans="12:14" x14ac:dyDescent="0.25">
@@ -2595,10 +2597,10 @@
         <v>20</v>
       </c>
       <c r="M62">
-        <v>3.3646685628839927E-2</v>
+        <v>3.36466678272914E-2</v>
       </c>
       <c r="N62">
-        <v>2.6764839538507078E-2</v>
+        <v>2.6764823259963204E-2</v>
       </c>
     </row>
     <row r="63" spans="12:14" x14ac:dyDescent="0.25">
@@ -2606,10 +2608,10 @@
         <v>20.5</v>
       </c>
       <c r="M63">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N63">
-        <v>2.6876913630199888E-2</v>
+        <v>2.6876897596694014E-2</v>
       </c>
     </row>
     <row r="64" spans="12:14" x14ac:dyDescent="0.25">
@@ -2617,10 +2619,10 @@
         <v>21</v>
       </c>
       <c r="M64">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N64">
-        <v>2.6983351078869934E-2</v>
+        <v>2.6983335280250268E-2</v>
       </c>
     </row>
     <row r="65" spans="12:14" x14ac:dyDescent="0.25">
@@ -2628,10 +2630,10 @@
         <v>21.5</v>
       </c>
       <c r="M65">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N65">
-        <v>2.708483794853208E-2</v>
+        <v>2.708482237387367E-2</v>
       </c>
     </row>
     <row r="66" spans="12:14" x14ac:dyDescent="0.25">
@@ -2639,10 +2641,10 @@
         <v>22</v>
       </c>
       <c r="M66">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N66">
-        <v>2.7181711778664127E-2</v>
+        <v>2.7181696417786918E-2</v>
       </c>
     </row>
     <row r="67" spans="12:14" x14ac:dyDescent="0.25">
@@ -2650,10 +2652,10 @@
         <v>22.5</v>
       </c>
       <c r="M67">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N67">
-        <v>2.7274280105234749E-2</v>
+        <v>2.7274264948637356E-2</v>
       </c>
     </row>
     <row r="68" spans="12:14" x14ac:dyDescent="0.25">
@@ -2661,10 +2663,10 @@
         <v>23</v>
       </c>
       <c r="M68">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N68">
-        <v>2.7362823721954473E-2</v>
+        <v>2.736280876075517E-2</v>
       </c>
     </row>
     <row r="69" spans="12:14" x14ac:dyDescent="0.25">
@@ -2672,10 +2674,10 @@
         <v>23.5</v>
       </c>
       <c r="M69">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N69">
-        <v>2.7447599525196764E-2</v>
+        <v>2.7447584751080733E-2</v>
       </c>
     </row>
     <row r="70" spans="12:14" x14ac:dyDescent="0.25">
@@ -2683,10 +2685,10 @@
         <v>24</v>
       </c>
       <c r="M70">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N70">
-        <v>2.7528843003303952E-2</v>
+        <v>2.7528828408476064E-2</v>
       </c>
     </row>
     <row r="71" spans="12:14" x14ac:dyDescent="0.25">
@@ -2694,10 +2696,10 @@
         <v>24.5</v>
       </c>
       <c r="M71">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N71">
-        <v>2.7606770421080243E-2</v>
+        <v>2.7606755998222605E-2</v>
       </c>
     </row>
     <row r="72" spans="12:14" x14ac:dyDescent="0.25">
@@ -2705,10 +2707,10 @@
         <v>25</v>
       </c>
       <c r="M72">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N72">
-        <v>2.7681580742145481E-2</v>
+        <v>2.7681566484379284E-2</v>
       </c>
     </row>
     <row r="73" spans="12:14" x14ac:dyDescent="0.25">
@@ -2716,10 +2718,10 @@
         <v>25.5</v>
       </c>
       <c r="M73">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N73">
-        <v>2.7753457325129731E-2</v>
+        <v>2.7753443225980806E-2</v>
       </c>
     </row>
     <row r="74" spans="12:14" x14ac:dyDescent="0.25">
@@ -2727,10 +2729,10 @@
         <v>26</v>
       </c>
       <c r="M74">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N74">
-        <v>2.7822569424153044E-2</v>
+        <v>2.7822555477520723E-2</v>
       </c>
     </row>
     <row r="75" spans="12:14" x14ac:dyDescent="0.25">
@@ -2738,10 +2740,10 @@
         <v>26.5</v>
       </c>
       <c r="M75">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N75">
-        <v>2.7889073519439634E-2</v>
+        <v>2.7889059719568572E-2</v>
       </c>
     </row>
     <row r="76" spans="12:14" x14ac:dyDescent="0.25">
@@ -2749,10 +2751,10 @@
         <v>27</v>
       </c>
       <c r="M76">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N76">
-        <v>2.7953114500085967E-2</v>
+        <v>2.7953100841540575E-2</v>
       </c>
     </row>
     <row r="77" spans="12:14" x14ac:dyDescent="0.25">
@@ -2760,10 +2762,10 @@
         <v>27.5</v>
       </c>
       <c r="M77">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N77">
-        <v>2.8014826717799715E-2</v>
+        <v>2.8014813195440868E-2</v>
       </c>
     </row>
     <row r="78" spans="12:14" x14ac:dyDescent="0.25">
@@ -2771,10 +2773,10 @@
         <v>28</v>
       </c>
       <c r="M78">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N78">
-        <v>2.8074334927737976E-2</v>
+        <v>2.8074321536701863E-2</v>
       </c>
     </row>
     <row r="79" spans="12:14" x14ac:dyDescent="0.25">
@@ -2782,10 +2784,10 @@
         <v>28.5</v>
       </c>
       <c r="M79">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N79">
-        <v>2.8131755130309979E-2</v>
+        <v>2.8131741865988789E-2</v>
       </c>
     </row>
     <row r="80" spans="12:14" x14ac:dyDescent="0.25">
@@ -2793,10 +2795,10 @@
         <v>29</v>
       </c>
       <c r="M80">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N80">
-        <v>2.8187195325896738E-2</v>
+        <v>2.8187182183920991E-2</v>
       </c>
     </row>
     <row r="81" spans="12:14" x14ac:dyDescent="0.25">
@@ -2804,10 +2806,10 @@
         <v>29.5</v>
       </c>
       <c r="M81">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N81">
-        <v>2.8240756192819544E-2</v>
+        <v>2.8240743169041939E-2</v>
       </c>
     </row>
     <row r="82" spans="12:14" x14ac:dyDescent="0.25">
@@ -2815,10 +2817,10 @@
         <v>30</v>
       </c>
       <c r="M82">
-        <v>3.1347286474342088E-2</v>
+        <v>3.134728030605665E-2</v>
       </c>
       <c r="N82">
-        <v>2.8292531697511579E-2</v>
+        <v>2.8292518787992181E-2</v>
       </c>
     </row>
   </sheetData>
